--- a/excel/data/cardScore.xlsx
+++ b/excel/data/cardScore.xlsx
@@ -62,12 +62,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>cfg.EScoreType</t>
   </si>
   <si>
     <t>##group</t>
@@ -306,12 +309,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1091,13 +1094,14 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="17.9" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="6" width="17.9" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.95" style="1" customWidth="1"/>
   </cols>
@@ -1109,6 +1113,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1121,47 +1128,47 @@
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1169,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1189,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1209,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1229,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1249,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -1269,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1290,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1311,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1332,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
